--- a/biology/Mycologie/Eurotiales/Eurotiales.xlsx
+++ b/biology/Mycologie/Eurotiales/Eurotiales.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Eurotiales sont un ordre de champignons Ascomycètes. 
 </t>
@@ -511,9 +523,11 @@
           <t>Liste des familles et genres</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Selon MycoBank                                            (29 janvier 2023)[1] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon MycoBank                                            (29 janvier 2023) :
 Aspergillaceae Link, 1826
 Bryocladium Kunze, 1830
 Eu-Aspergillaceae A.A.Jaczewski, 1913
@@ -551,9 +565,11 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom correct complet (avec auteur) de ce taxon est Eurotiales G.W.Martin ex Benny &amp; Kimbr., 1980[1].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom correct complet (avec auteur) de ce taxon est Eurotiales G.W.Martin ex Benny &amp; Kimbr., 1980.
 </t>
         </is>
       </c>
@@ -582,7 +598,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>(en) G.L. Benny et J.W. Kimbrough, « A synopsis of the orders and families of Plectomycetes with keys to genera », Mycotaxon, États-Unis, vol. 12,‎ 1980, p. 1-91 (ISSN 0093-4666)</t>
         </is>
